--- a/Companies/Refineries/Bharat Petroleum Corporation Ltd/Pruned_Excel/9_Sep23_Sep24.xlsx
+++ b/Companies/Refineries/Bharat Petroleum Corporation Ltd/Pruned_Excel/9_Sep23_Sep24.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +439,6 @@
     <col width="12" customWidth="1" min="4" max="4"/>
     <col width="12" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="11" customWidth="1" min="8" max="8"/>
-    <col width="11" customWidth="1" min="9" max="9"/>
-    <col width="19" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Sep '23</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Dec '23</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Mar '24</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Jun '24</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Sep '24</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '24</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '24</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '23</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '23</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -504,37 +481,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>102,985.56</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>115,494.24</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>116,555.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>113,096.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>102,790.39</t>
         </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>113,096.01</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>116,555.12</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>115,494.24</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>102,985.56</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>116555.12</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>102790.39</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>110184.264</v>
       </c>
     </row>
     <row r="3">
@@ -545,37 +513,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>102,985.56</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>115,494.24</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>116,555.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>113,096.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>102,790.39</t>
         </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>113,096.01</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>116,555.12</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>115,494.24</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>102,985.56</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>116555.12</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>102790.39</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>110184.264</v>
       </c>
     </row>
     <row r="4"/>
@@ -594,37 +553,28 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>49,768.39</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>56,210.58</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>56,552.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>58,847.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>57,604.14</t>
         </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>58,847.58</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>56,552.95</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>56,210.58</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>49,768.39</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>58847.58</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>49768.39</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>55796.728</v>
       </c>
     </row>
     <row r="7">
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>40,275.49</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>45,771.04</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>41,546.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>40,391.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>36,775.63</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>40,391.88</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>41,546.51</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>45,771.04</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>40,275.49</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>45771.04</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>36775.63</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>40952.11</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>-6,291.84</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>-68.88</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1,443.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1,370.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>-3,048.11</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1,370.08</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1,443.18</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>-68.88</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>-6,291.84</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>1443.18</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>-6291.84</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>-1319.114</v>
       </c>
     </row>
     <row r="9">
@@ -717,37 +649,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>758.97</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1,068.02</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>849.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>781.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>768.91</t>
         </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>781.47</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>849.00</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1,068.02</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>758.97</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>1068.02</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>758.97</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>845.274</v>
       </c>
     </row>
     <row r="10">
@@ -758,37 +681,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>1,599.81</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1,824.44</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1,716.52</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1,680.79</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>1,772.91</t>
         </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1,680.79</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1,716.52</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1,824.44</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1,599.81</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>1824.44</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>1599.81</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>1718.894</v>
       </c>
     </row>
     <row r="11">
@@ -799,37 +713,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>5,566.57</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>6,287.23</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6,950.43</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>6,054.54</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>6,143.41</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>6,054.54</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>6,950.43</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>6,287.23</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5,566.57</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>6950.43</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>5566.57</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>6200.436</v>
       </c>
     </row>
     <row r="12">
@@ -840,37 +745,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>11,308.17</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>4,401.81</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7,496.53</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>3,969.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>2,773.50</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>3,969.67</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>7,496.53</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>4,401.81</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>11,308.17</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>11308.17</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>2773.5</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>5989.936</v>
       </c>
     </row>
     <row r="13">
@@ -881,37 +777,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>771.23</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>680.12</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>469.11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>505.82</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>889.62</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>505.82</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>469.11</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>680.12</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>771.23</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>889.62</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>469.11</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>663.1800000000001</v>
       </c>
     </row>
     <row r="14">
@@ -922,37 +809,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>12,079.40</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>5,081.93</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7,965.64</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>4,475.49</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>3,663.12</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>4,475.49</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>7,965.64</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>5,081.93</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>12,079.40</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>12079.4</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>3663.12</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>6653.116</v>
       </c>
     </row>
     <row r="15">
@@ -963,37 +841,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>767.59</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>501.85</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>524.26</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>443.45</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>469.51</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>443.45</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>524.26</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>501.85</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>767.59</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>767.59</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>443.45</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>541.332</v>
       </c>
     </row>
     <row r="16">
@@ -1004,37 +873,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>11,311.81</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>4,580.08</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7,441.38</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>4,032.04</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>3,193.61</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>4,032.04</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>7,441.38</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>4,580.08</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>11,311.81</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>11311.81</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>3193.61</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>6111.784</v>
       </c>
     </row>
     <row r="17">
@@ -1068,15 +928,6 @@
           <t>--</t>
         </is>
       </c>
-      <c r="H17" s="2" t="n">
-        <v>-1798.02</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>-1798.02</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>-1798.02</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1086,37 +937,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>11,311.81</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>4,580.08</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5,643.36</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>4,032.04</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>3,193.61</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>4,032.04</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>5,643.36</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>4,580.08</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>11,311.81</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>11311.81</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>3193.61</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>5752.179999999999</v>
       </c>
     </row>
     <row r="19">
@@ -1127,37 +969,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>2,810.64</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1,182.81</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1,419.18</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1,017.27</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>796.38</t>
         </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1,017.27</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1,419.18</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>1,182.81</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2,810.64</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>2810.64</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>796.38</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>1445.256</v>
       </c>
     </row>
     <row r="20">
@@ -1168,37 +1001,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>8,501.17</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>3,397.27</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4,224.18</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>3,014.77</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>2,397.23</t>
         </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>3,014.77</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>4,224.18</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>3,397.27</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>8,501.17</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>8501.17</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>2397.23</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>4306.924</v>
       </c>
     </row>
     <row r="21">
@@ -1209,37 +1033,28 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>8,501.17</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>3,397.27</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4,224.18</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>3,014.77</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>2,397.23</t>
         </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>3,014.77</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>4,224.18</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>3,397.27</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>8,501.17</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>8501.17</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>2397.23</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>4306.924</v>
       </c>
     </row>
     <row r="22">
@@ -1250,37 +1065,28 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>2,129.45</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2,129.45</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2,136.29</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>4,272.58</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>4,272.58</t>
         </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>2,136.29</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>2,129.45</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2,129.45</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>4272.58</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>2129.45</v>
-      </c>
-      <c r="J22" s="2" t="n">
-        <v>2988.07</v>
       </c>
     </row>
     <row r="23"/>
@@ -1299,37 +1105,28 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>39.92</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>15.95</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>19.80</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>5.61</t>
         </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>7.06</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>19.80</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>15.95</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>39.92</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>39.92</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="J25" s="2" t="n">
-        <v>17.668</v>
       </c>
     </row>
     <row r="26">
@@ -1340,37 +1137,28 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>39.92</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>15.95</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>19.80</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>5.61</t>
         </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>7.06</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>19.80</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>15.95</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>39.92</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>39.92</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="J26" s="2" t="n">
-        <v>17.668</v>
       </c>
     </row>
     <row r="27"/>
@@ -1389,37 +1177,28 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>39.92</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>15.95</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>19.80</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>5.61</t>
         </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>7.06</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>19.80</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>15.95</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>39.92</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>39.92</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="J29" s="2" t="n">
-        <v>17.668</v>
       </c>
     </row>
     <row r="30">
@@ -1430,37 +1209,28 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>39.92</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>15.95</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>19.80</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
           <t>5.61</t>
         </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>7.06</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>19.80</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>15.95</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>39.92</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="n">
-        <v>39.92</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="J30" s="2" t="n">
-        <v>17.668</v>
       </c>
     </row>
     <row r="31"/>
